--- a/resources/cities_matrix.xlsx
+++ b/resources/cities_matrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Białystok</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Zamość</t>
+  </si>
+  <si>
+    <t>Kraków</t>
   </si>
   <si>
     <t>-</t>
@@ -206,6 +209,18 @@
   </si>
   <si>
     <t>85.8</t>
+  </si>
+  <si>
+    <t>98.4</t>
+  </si>
+  <si>
+    <t>48.4</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>14.6</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1484,9 @@
       <c r="AE1" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="AF1" s="2"/>
+      <c r="AF1" t="s" s="3">
+        <v>30</v>
+      </c>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
@@ -1478,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1521,7 +1538,7 @@
         <v>557</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1563,10 +1580,10 @@
         <v>524</v>
       </c>
       <c r="C4" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="3">
         <v>31</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>30</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1613,7 +1630,7 @@
         <v>551</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1662,7 +1679,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1701,10 +1718,10 @@
         <v>504</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4">
         <v>535</v>
@@ -1713,7 +1730,7 @@
         <v>559</v>
       </c>
       <c r="G7" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1766,7 +1783,7 @@
         <v>202</v>
       </c>
       <c r="H8" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1803,10 +1820,10 @@
         <v>489</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4">
         <v>520</v>
@@ -1815,13 +1832,13 @@
         <v>544</v>
       </c>
       <c r="G9" t="s" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4">
         <v>187</v>
       </c>
       <c r="I9" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1878,7 +1895,7 @@
         <v>154</v>
       </c>
       <c r="J10" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1928,7 +1945,7 @@
         <v>290</v>
       </c>
       <c r="H11" t="s" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="4">
         <v>262</v>
@@ -1937,7 +1954,7 @@
         <v>186</v>
       </c>
       <c r="K11" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1995,10 +2012,10 @@
         <v>192</v>
       </c>
       <c r="K12" t="s" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2061,7 +2078,7 @@
         <v>345</v>
       </c>
       <c r="M13" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2126,7 +2143,7 @@
         <v>304</v>
       </c>
       <c r="N14" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2163,10 +2180,10 @@
         <v>536</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="4">
         <v>520</v>
@@ -2193,7 +2210,7 @@
         <v>325</v>
       </c>
       <c r="O15" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2217,7 +2234,7 @@
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4">
         <v>585</v>
@@ -2250,7 +2267,7 @@
         <v>163</v>
       </c>
       <c r="L16" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16" s="4">
         <v>402</v>
@@ -2262,7 +2279,7 @@
         <v>659</v>
       </c>
       <c r="P16" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -2333,7 +2350,7 @@
         <v>626</v>
       </c>
       <c r="Q17" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2406,7 +2423,7 @@
         <v>354</v>
       </c>
       <c r="R18" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -2463,7 +2480,7 @@
         <v>374</v>
       </c>
       <c r="M19" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N19" s="4">
         <v>271</v>
@@ -2481,7 +2498,7 @@
         <v>442</v>
       </c>
       <c r="S19" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -2510,7 +2527,7 @@
         <v>288</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4">
         <v>470</v>
@@ -2528,7 +2545,7 @@
         <v>235</v>
       </c>
       <c r="J20" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="4">
         <v>240</v>
@@ -2555,10 +2572,10 @@
         <v>363</v>
       </c>
       <c r="S20" t="s" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T20" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -2607,7 +2624,7 @@
         <v>155</v>
       </c>
       <c r="K21" t="s" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L21" s="4">
         <v>172</v>
@@ -2637,7 +2654,7 @@
         <v>270</v>
       </c>
       <c r="U21" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -2682,7 +2699,7 @@
         <v>287</v>
       </c>
       <c r="J22" t="s" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" s="4">
         <v>143</v>
@@ -2718,7 +2735,7 @@
         <v>108</v>
       </c>
       <c r="V22" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -2801,7 +2818,7 @@
         <v>707</v>
       </c>
       <c r="W23" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -2838,13 +2855,13 @@
         <v>228</v>
       </c>
       <c r="H24" t="s" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" s="4">
         <v>200</v>
       </c>
       <c r="J24" t="s" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" s="4">
         <v>100</v>
@@ -2877,16 +2894,16 @@
         <v>159</v>
       </c>
       <c r="U24" t="s" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V24" t="s" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W24" s="4">
         <v>766</v>
       </c>
       <c r="X24" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -2973,7 +2990,7 @@
         <v>505</v>
       </c>
       <c r="Y25" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -3008,7 +3025,7 @@
         <v>190</v>
       </c>
       <c r="H26" t="s" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" s="4">
         <v>162</v>
@@ -3017,10 +3034,10 @@
         <v>111</v>
       </c>
       <c r="K26" t="s" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M26" s="4">
         <v>247</v>
@@ -3047,7 +3064,7 @@
         <v>192</v>
       </c>
       <c r="U26" t="s" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V26" s="4">
         <v>108</v>
@@ -3062,7 +3079,7 @@
         <v>466</v>
       </c>
       <c r="Z26" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -3153,7 +3170,7 @@
         <v>286</v>
       </c>
       <c r="AA27" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -3171,10 +3188,10 @@
         <v>503</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" s="4">
         <v>610</v>
@@ -3186,10 +3203,10 @@
         <v>121</v>
       </c>
       <c r="H28" t="s" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J28" s="4">
         <v>156</v>
@@ -3210,7 +3227,7 @@
         <v>594</v>
       </c>
       <c r="P28" t="s" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="4">
         <v>564</v>
@@ -3240,13 +3257,13 @@
         <v>397</v>
       </c>
       <c r="Z28" t="s" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA28" s="4">
         <v>309</v>
       </c>
       <c r="AB28" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -3341,7 +3358,7 @@
         <v>285</v>
       </c>
       <c r="AC29" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -3396,7 +3413,7 @@
         <v>679</v>
       </c>
       <c r="P30" t="s" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q30" s="4">
         <v>621</v>
@@ -3438,7 +3455,7 @@
         <v>368</v>
       </c>
       <c r="AD30" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
@@ -3483,7 +3500,7 @@
         <v>324</v>
       </c>
       <c r="M31" t="s" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N31" s="4">
         <v>398</v>
@@ -3537,45 +3554,109 @@
         <v>413</v>
       </c>
       <c r="AE31" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
     <row r="32" ht="13.65" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
+      <c r="A32" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>485</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="E32" s="4">
+        <v>596</v>
+      </c>
+      <c r="F32" s="4">
+        <v>619</v>
+      </c>
+      <c r="G32" s="4">
+        <v>107</v>
+      </c>
+      <c r="H32" s="4">
+        <v>96</v>
+      </c>
+      <c r="I32" s="4">
+        <v>81</v>
+      </c>
+      <c r="J32" s="4">
+        <v>114</v>
+      </c>
+      <c r="K32" s="4">
+        <v>184</v>
+      </c>
+      <c r="L32" s="4">
+        <v>141</v>
+      </c>
+      <c r="M32" s="4">
+        <v>335</v>
+      </c>
+      <c r="N32" s="4">
+        <v>280</v>
+      </c>
+      <c r="O32" s="4">
+        <v>581</v>
+      </c>
+      <c r="P32" s="4">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>501</v>
+      </c>
+      <c r="R32" s="4">
+        <v>458</v>
+      </c>
+      <c r="S32" s="4">
+        <v>253</v>
+      </c>
+      <c r="T32" s="4">
+        <v>195</v>
+      </c>
+      <c r="U32" s="4">
+        <v>167</v>
+      </c>
+      <c r="V32" s="4">
+        <v>160</v>
+      </c>
+      <c r="W32" s="4">
+        <v>648</v>
+      </c>
+      <c r="X32" s="4">
+        <v>121</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>385</v>
+      </c>
+      <c r="Z32" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>290</v>
+      </c>
+      <c r="AB32" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>271</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>110</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>319</v>
+      </c>
+      <c r="AF32" t="s" s="3">
+        <v>31</v>
+      </c>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>

--- a/resources/cities_matrix.xlsx
+++ b/resources/cities_matrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Białystok</t>
   </si>
@@ -139,9 +139,6 @@
     <t>97.3</t>
   </si>
   <si>
-    <t>NowyTarg</t>
-  </si>
-  <si>
     <t>96.2</t>
   </si>
   <si>
@@ -247,12 +244,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -265,16 +268,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -291,13 +294,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -317,6 +320,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -516,12 +520,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -554,10 +558,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -805,12 +809,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1125,10 +1129,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2234,7 +2238,7 @@
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>585</v>
@@ -2267,7 +2271,7 @@
         <v>163</v>
       </c>
       <c r="L16" t="s" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" s="4">
         <v>402</v>
@@ -2480,7 +2484,7 @@
         <v>374</v>
       </c>
       <c r="M19" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N19" s="4">
         <v>271</v>
@@ -2527,7 +2531,7 @@
         <v>288</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4">
         <v>470</v>
@@ -2545,7 +2549,7 @@
         <v>235</v>
       </c>
       <c r="J20" t="s" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="4">
         <v>240</v>
@@ -2572,7 +2576,7 @@
         <v>363</v>
       </c>
       <c r="S20" t="s" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s" s="3">
         <v>31</v>
@@ -2624,7 +2628,7 @@
         <v>155</v>
       </c>
       <c r="K21" t="s" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21" s="4">
         <v>172</v>
@@ -2699,7 +2703,7 @@
         <v>287</v>
       </c>
       <c r="J22" t="s" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" s="4">
         <v>143</v>
@@ -2855,13 +2859,13 @@
         <v>228</v>
       </c>
       <c r="H24" t="s" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="4">
         <v>200</v>
       </c>
       <c r="J24" t="s" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24" s="4">
         <v>100</v>
@@ -2894,10 +2898,10 @@
         <v>159</v>
       </c>
       <c r="U24" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="V24" t="s" s="3">
         <v>52</v>
-      </c>
-      <c r="V24" t="s" s="3">
-        <v>53</v>
       </c>
       <c r="W24" s="4">
         <v>766</v>
@@ -3025,7 +3029,7 @@
         <v>190</v>
       </c>
       <c r="H26" t="s" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="4">
         <v>162</v>
@@ -3034,10 +3038,10 @@
         <v>111</v>
       </c>
       <c r="K26" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="L26" t="s" s="3">
         <v>55</v>
-      </c>
-      <c r="L26" t="s" s="3">
-        <v>56</v>
       </c>
       <c r="M26" s="4">
         <v>247</v>
@@ -3064,7 +3068,7 @@
         <v>192</v>
       </c>
       <c r="U26" t="s" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V26" s="4">
         <v>108</v>
@@ -3188,10 +3192,10 @@
         <v>503</v>
       </c>
       <c r="C28" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s" s="3">
         <v>58</v>
-      </c>
-      <c r="D28" t="s" s="3">
-        <v>59</v>
       </c>
       <c r="E28" s="4">
         <v>610</v>
@@ -3203,10 +3207,10 @@
         <v>121</v>
       </c>
       <c r="H28" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="I28" t="s" s="3">
         <v>60</v>
-      </c>
-      <c r="I28" t="s" s="3">
-        <v>61</v>
       </c>
       <c r="J28" s="4">
         <v>156</v>
@@ -3227,7 +3231,7 @@
         <v>594</v>
       </c>
       <c r="P28" t="s" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="4">
         <v>564</v>
@@ -3257,7 +3261,7 @@
         <v>397</v>
       </c>
       <c r="Z28" t="s" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA28" s="4">
         <v>309</v>
@@ -3413,7 +3417,7 @@
         <v>679</v>
       </c>
       <c r="P30" t="s" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q30" s="4">
         <v>621</v>
@@ -3500,7 +3504,7 @@
         <v>324</v>
       </c>
       <c r="M31" t="s" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N31" s="4">
         <v>398</v>
@@ -3568,10 +3572,10 @@
         <v>485</v>
       </c>
       <c r="C32" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s" s="3">
         <v>66</v>
-      </c>
-      <c r="D32" t="s" s="3">
-        <v>67</v>
       </c>
       <c r="E32" s="4">
         <v>596</v>
@@ -3637,13 +3641,13 @@
         <v>385</v>
       </c>
       <c r="Z32" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA32" s="4">
         <v>290</v>
       </c>
       <c r="AB32" t="s" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC32" s="4">
         <v>271</v>
